--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt11-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt11</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt11</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.062425</v>
+        <v>20.223983</v>
       </c>
       <c r="H2">
-        <v>0.187275</v>
+        <v>60.671949</v>
       </c>
       <c r="I2">
-        <v>0.00296197839880675</v>
+        <v>0.9624502889455165</v>
       </c>
       <c r="J2">
-        <v>0.00296197839880675</v>
+        <v>0.9624502889455167</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N2">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P2">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q2">
-        <v>0.06415906245833333</v>
+        <v>65.43148812453066</v>
       </c>
       <c r="R2">
-        <v>0.577431562125</v>
+        <v>588.883393120776</v>
       </c>
       <c r="S2">
-        <v>0.0002375645249441264</v>
+        <v>0.2072862348020109</v>
       </c>
       <c r="T2">
-        <v>0.0002375645249441265</v>
+        <v>0.2072862348020109</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.062425</v>
+        <v>20.223983</v>
       </c>
       <c r="H3">
-        <v>0.187275</v>
+        <v>60.671949</v>
       </c>
       <c r="I3">
-        <v>0.00296197839880675</v>
+        <v>0.9624502889455165</v>
       </c>
       <c r="J3">
-        <v>0.00296197839880675</v>
+        <v>0.9624502889455167</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.820535</v>
       </c>
       <c r="O3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P3">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q3">
-        <v>0.4540489657916667</v>
+        <v>147.0993762969683</v>
       </c>
       <c r="R3">
-        <v>4.086440692125</v>
+        <v>1323.894386672715</v>
       </c>
       <c r="S3">
-        <v>0.001681226668948293</v>
+        <v>0.4660092063975421</v>
       </c>
       <c r="T3">
-        <v>0.001681226668948293</v>
+        <v>0.4660092063975421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.062425</v>
+        <v>20.223983</v>
       </c>
       <c r="H4">
-        <v>0.187275</v>
+        <v>60.671949</v>
       </c>
       <c r="I4">
-        <v>0.00296197839880675</v>
+        <v>0.9624502889455165</v>
       </c>
       <c r="J4">
-        <v>0.00296197839880675</v>
+        <v>0.9624502889455167</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>13.539461</v>
       </c>
       <c r="O4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P4">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q4">
-        <v>0.2817336176416667</v>
+        <v>91.27394303105433</v>
       </c>
       <c r="R4">
-        <v>2.535602558775</v>
+        <v>821.4654872794889</v>
       </c>
       <c r="S4">
-        <v>0.001043187204914331</v>
+        <v>0.2891548477459637</v>
       </c>
       <c r="T4">
-        <v>0.001043187204914331</v>
+        <v>0.2891548477459637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.223983</v>
+        <v>0.7890326666666668</v>
       </c>
       <c r="H5">
-        <v>60.671949</v>
+        <v>2.367098</v>
       </c>
       <c r="I5">
-        <v>0.9595995319797346</v>
+        <v>0.03754971105448342</v>
       </c>
       <c r="J5">
-        <v>0.9595995319797347</v>
+        <v>0.03754971105448343</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.027778333333333</v>
+        <v>3.235341333333333</v>
       </c>
       <c r="N5">
-        <v>3.083335</v>
+        <v>9.706023999999999</v>
       </c>
       <c r="O5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="P5">
-        <v>0.08020467841353289</v>
+        <v>0.2153734454473681</v>
       </c>
       <c r="Q5">
-        <v>20.78577154110166</v>
+        <v>2.552789999816889</v>
       </c>
       <c r="R5">
-        <v>187.071943869915</v>
+        <v>22.975109998352</v>
       </c>
       <c r="S5">
-        <v>0.07696437186821128</v>
+        <v>0.00808721064535722</v>
       </c>
       <c r="T5">
-        <v>0.07696437186821128</v>
+        <v>0.008087210645357223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.223983</v>
+        <v>0.7890326666666668</v>
       </c>
       <c r="H6">
-        <v>60.671949</v>
+        <v>2.367098</v>
       </c>
       <c r="I6">
-        <v>0.9595995319797346</v>
+        <v>0.03754971105448342</v>
       </c>
       <c r="J6">
-        <v>0.9595995319797347</v>
+        <v>0.03754971105448343</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>21.820535</v>
       </c>
       <c r="O6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="P6">
-        <v>0.567602609669802</v>
+        <v>0.4841904166376352</v>
       </c>
       <c r="Q6">
-        <v>147.0993762969683</v>
+        <v>5.739038306381112</v>
       </c>
       <c r="R6">
-        <v>1323.894386672715</v>
+        <v>51.65134475743001</v>
       </c>
       <c r="S6">
-        <v>0.544671198589618</v>
+        <v>0.01818121024009315</v>
       </c>
       <c r="T6">
-        <v>0.5446711985896181</v>
+        <v>0.01818121024009315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.223983</v>
+        <v>0.7890326666666668</v>
       </c>
       <c r="H7">
-        <v>60.671949</v>
+        <v>2.367098</v>
       </c>
       <c r="I7">
-        <v>0.9595995319797346</v>
+        <v>0.03754971105448342</v>
       </c>
       <c r="J7">
-        <v>0.9595995319797347</v>
+        <v>0.03754971105448343</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>13.539461</v>
       </c>
       <c r="O7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="P7">
-        <v>0.3521927119166651</v>
+        <v>0.3004361379149967</v>
       </c>
       <c r="Q7">
-        <v>91.27394303105433</v>
+        <v>3.561025672686445</v>
       </c>
       <c r="R7">
-        <v>821.465487279489</v>
+        <v>32.049231054178</v>
       </c>
       <c r="S7">
-        <v>0.3379639615219053</v>
+        <v>0.01128129016903306</v>
       </c>
       <c r="T7">
-        <v>0.3379639615219054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.7890326666666666</v>
-      </c>
-      <c r="H8">
-        <v>2.367098</v>
-      </c>
-      <c r="I8">
-        <v>0.0374384896214586</v>
-      </c>
-      <c r="J8">
-        <v>0.03743848962145861</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>1.027778333333333</v>
-      </c>
-      <c r="N8">
-        <v>3.083335</v>
-      </c>
-      <c r="O8">
-        <v>0.08020467841353289</v>
-      </c>
-      <c r="P8">
-        <v>0.08020467841353289</v>
-      </c>
-      <c r="Q8">
-        <v>0.8109506790922221</v>
-      </c>
-      <c r="R8">
-        <v>7.29855611183</v>
-      </c>
-      <c r="S8">
-        <v>0.003002742020377475</v>
-      </c>
-      <c r="T8">
-        <v>0.003002742020377476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.7890326666666666</v>
-      </c>
-      <c r="H9">
-        <v>2.367098</v>
-      </c>
-      <c r="I9">
-        <v>0.0374384896214586</v>
-      </c>
-      <c r="J9">
-        <v>0.03743848962145861</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.273511666666667</v>
-      </c>
-      <c r="N9">
-        <v>21.820535</v>
-      </c>
-      <c r="O9">
-        <v>0.567602609669802</v>
-      </c>
-      <c r="P9">
-        <v>0.567602609669802</v>
-      </c>
-      <c r="Q9">
-        <v>5.739038306381111</v>
-      </c>
-      <c r="R9">
-        <v>51.65134475743</v>
-      </c>
-      <c r="S9">
-        <v>0.0212501844112357</v>
-      </c>
-      <c r="T9">
-        <v>0.0212501844112357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7890326666666666</v>
-      </c>
-      <c r="H10">
-        <v>2.367098</v>
-      </c>
-      <c r="I10">
-        <v>0.0374384896214586</v>
-      </c>
-      <c r="J10">
-        <v>0.03743848962145861</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.513153666666667</v>
-      </c>
-      <c r="N10">
-        <v>13.539461</v>
-      </c>
-      <c r="O10">
-        <v>0.3521927119166651</v>
-      </c>
-      <c r="P10">
-        <v>0.3521927119166651</v>
-      </c>
-      <c r="Q10">
-        <v>3.561025672686444</v>
-      </c>
-      <c r="R10">
-        <v>32.049231054178</v>
-      </c>
-      <c r="S10">
-        <v>0.01318556318984542</v>
-      </c>
-      <c r="T10">
-        <v>0.01318556318984543</v>
+        <v>0.01128129016903306</v>
       </c>
     </row>
   </sheetData>
